--- a/Тест/2019_05_21/Test_1905-14,21_OKO.xlsx
+++ b/Тест/2019_05_21/Test_1905-14,21_OKO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019_05_14" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
   <si>
     <t>ФИО</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Предсказ. сек.</t>
   </si>
   <si>
-    <t>Конфликт №4 не обнаружен</t>
-  </si>
-  <si>
     <t>нет</t>
   </si>
   <si>
@@ -220,6 +217,66 @@
   </si>
   <si>
     <t>Конфликт №6 не обнаружен</t>
+  </si>
+  <si>
+    <t>GZP155</t>
+  </si>
+  <si>
+    <t>SBI86</t>
+  </si>
+  <si>
+    <t>FIN123</t>
+  </si>
+  <si>
+    <t>AFR01</t>
+  </si>
+  <si>
+    <t>KLM67</t>
+  </si>
+  <si>
+    <t>THA05</t>
+  </si>
+  <si>
+    <t>ANA58</t>
+  </si>
+  <si>
+    <t>AFL2406</t>
+  </si>
+  <si>
+    <t>DNV4863</t>
+  </si>
+  <si>
+    <t>SDM589</t>
+  </si>
+  <si>
+    <t>AFL2433</t>
+  </si>
+  <si>
+    <t>Крайнее время реакции</t>
+  </si>
+  <si>
+    <t>Время кофликта</t>
+  </si>
+  <si>
+    <t>Конфликт №3 не обнаружен</t>
+  </si>
+  <si>
+    <t>Конфликты № 3 и № 4 поменял местами по сравнению с бумажными заметками - для совместимости с измерениями на тренажере</t>
+  </si>
+  <si>
+    <t>Минимальное время предсказания</t>
+  </si>
+  <si>
+    <t>Конфликт не обнаружен</t>
+  </si>
+  <si>
+    <t>Конфликт обнаружен с опозданием.</t>
+  </si>
+  <si>
+    <t>Положительное число - конфликт еще не наступил, на крайнее время реакции уже прошло</t>
+  </si>
+  <si>
+    <t>Отрицательное число - конфликт уже прошел</t>
   </si>
 </sst>
 </file>
@@ -229,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +319,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,7 +344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -458,9 +530,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -767,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +951,10 @@
         <f>MINUTE(H4)*60+SECOND(H4)</f>
         <v>204</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f>IF(I4&lt;VLOOKUP(B4,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -905,11 +986,14 @@
         <f t="shared" ref="I5:I9" si="3">MINUTE(H5)*60+SECOND(H5)</f>
         <v>54</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="str">
+        <f>IF(I5&lt;VLOOKUP(B5,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="23">
         <f>VLOOKUP(B6,Время!A$4:D$9,4,FALSE)</f>
@@ -937,11 +1021,14 @@
         <f t="shared" si="3"/>
         <v>392</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="str">
+        <f>IF(I6&lt;VLOOKUP(B6,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="23">
         <f>VLOOKUP(B7,Время!A$4:D$9,4,FALSE)</f>
@@ -969,7 +1056,10 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f>IF(I7&lt;VLOOKUP(B7,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -1001,7 +1091,10 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f>IF(I8&lt;VLOOKUP(B8,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -1033,7 +1126,10 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>IF(I9&lt;VLOOKUP(B9,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1135,7 +1231,10 @@
         <f>MINUTE(H16)*60+SECOND(H16)</f>
         <v>161</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f>IF(I16&lt;VLOOKUP(B16,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
@@ -1167,11 +1266,14 @@
         <f t="shared" ref="I17:I21" si="7">MINUTE(H17)*60+SECOND(H17)</f>
         <v>36</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f>IF(I17&lt;VLOOKUP(B17,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="23">
         <f>VLOOKUP(B18,Время!A$4:D$9,4,FALSE)</f>
@@ -1199,11 +1301,14 @@
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>IF(I18&lt;VLOOKUP(B18,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="23">
         <f>VLOOKUP(B19,Время!A$4:D$9,4,FALSE)</f>
@@ -1231,7 +1336,10 @@
         <f t="shared" si="7"/>
         <v>236</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="str">
+        <f>IF(I19&lt;VLOOKUP(B19,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
@@ -1263,7 +1371,10 @@
         <f t="shared" si="7"/>
         <v>207</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>IF(I20&lt;VLOOKUP(B20,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
@@ -1295,7 +1406,10 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>IF(I21&lt;VLOOKUP(B21,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1397,7 +1511,10 @@
         <f>MINUTE(H28)*60+SECOND(H28)</f>
         <v>116</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f>IF(I28&lt;VLOOKUP(B28,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
@@ -1429,11 +1546,14 @@
         <f t="shared" ref="I29:I33" si="11">MINUTE(H29)*60+SECOND(H29)</f>
         <v>43</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f>IF(I29&lt;VLOOKUP(B29,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="23">
         <f>VLOOKUP(B30,Время!A$4:D$9,4,FALSE)</f>
@@ -1461,11 +1581,14 @@
         <f t="shared" si="11"/>
         <v>396</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>IF(I30&lt;VLOOKUP(B30,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="23">
         <f>VLOOKUP(B31,Время!A$4:D$9,4,FALSE)</f>
@@ -1493,7 +1616,10 @@
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f>IF(I31&lt;VLOOKUP(B31,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -1525,7 +1651,10 @@
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="str">
+        <f>IF(I32&lt;VLOOKUP(B32,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
@@ -1557,7 +1686,10 @@
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="str">
+        <f>IF(I33&lt;VLOOKUP(B33,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
@@ -1659,7 +1791,10 @@
         <f>MINUTE(H40)*60+SECOND(H40)</f>
         <v>271</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="str">
+        <f>IF(I40&lt;VLOOKUP(B40,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
@@ -1691,7 +1826,10 @@
         <f t="shared" ref="I41:I46" si="15">MINUTE(H41)*60+SECOND(H41)</f>
         <v>138</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1" t="str">
+        <f>IF(I41&lt;VLOOKUP(B41,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -1745,7 +1883,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="23">
         <f>VLOOKUP(B44,Время!A$4:D$9,4,FALSE)</f>
@@ -1773,7 +1911,10 @@
         <f t="shared" si="15"/>
         <v>78</v>
       </c>
-      <c r="J44" s="1"/>
+      <c r="J44" s="1" t="str">
+        <f>IF(I44&lt;VLOOKUP(B44,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
@@ -1805,7 +1946,10 @@
         <f t="shared" si="15"/>
         <v>112</v>
       </c>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="str">
+        <f>IF(I45&lt;VLOOKUP(B45,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
@@ -1837,14 +1981,17 @@
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="str">
+        <f>IF(I46&lt;VLOOKUP(B46,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -1954,7 +2101,10 @@
         <f>MINUTE(H54)*60+SECOND(H54)</f>
         <v>219</v>
       </c>
-      <c r="J54" s="1"/>
+      <c r="J54" s="1" t="str">
+        <f>IF(I54&lt;VLOOKUP(B54,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
@@ -1982,15 +2132,18 @@
         <f t="shared" ref="H55:H59" si="20">C55-G55</f>
         <v>2.1990740740738613E-4</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="31">
         <f t="shared" ref="I55:I59" si="21">MINUTE(H55)*60+SECOND(H55)</f>
         <v>19</v>
       </c>
-      <c r="J55" s="1"/>
+      <c r="J55" s="34" t="str">
+        <f>IF(I55&lt;VLOOKUP(B55,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="23">
         <f>VLOOKUP(B56,Время!A$4:D$9,4,FALSE)</f>
@@ -2018,11 +2171,14 @@
         <f t="shared" si="21"/>
         <v>85</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="1" t="str">
+        <f>IF(I56&lt;VLOOKUP(B56,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="23">
         <f>VLOOKUP(B57,Время!A$4:D$9,4,FALSE)</f>
@@ -2050,7 +2206,10 @@
         <f t="shared" si="21"/>
         <v>220</v>
       </c>
-      <c r="J57" s="1"/>
+      <c r="J57" s="1" t="str">
+        <f>IF(I57&lt;VLOOKUP(B57,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
@@ -2082,7 +2241,10 @@
         <f t="shared" si="21"/>
         <v>83</v>
       </c>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="str">
+        <f>IF(I58&lt;VLOOKUP(B58,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
@@ -2114,7 +2276,10 @@
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="str">
+        <f>IF(I59&lt;VLOOKUP(B59,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -2241,7 +2406,10 @@
         <f t="shared" ref="I67:I72" si="25">MINUTE(H67)*60+SECOND(H67)</f>
         <v>66</v>
       </c>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="str">
+        <f>IF(I67&lt;VLOOKUP(B67,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
@@ -2273,11 +2441,14 @@
         <f t="shared" si="25"/>
         <v>82</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="str">
+        <f>IF(I68&lt;VLOOKUP(B68,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="23">
         <f>VLOOKUP(B69,Время!A$4:D$9,4,FALSE)</f>
@@ -2305,11 +2476,14 @@
         <f t="shared" si="25"/>
         <v>67</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="1" t="str">
+        <f>IF(I69&lt;VLOOKUP(B69,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="23">
         <f>VLOOKUP(B70,Время!A$4:D$9,4,FALSE)</f>
@@ -2337,7 +2511,10 @@
         <f t="shared" si="25"/>
         <v>202</v>
       </c>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1" t="str">
+        <f>IF(I70&lt;VLOOKUP(B70,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
@@ -2369,7 +2546,10 @@
         <f t="shared" si="25"/>
         <v>39</v>
       </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="str">
+        <f>IF(I71&lt;VLOOKUP(B71,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
@@ -2401,7 +2581,10 @@
         <f t="shared" si="25"/>
         <v>28</v>
       </c>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="str">
+        <f>IF(I72&lt;VLOOKUP(B72,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
@@ -2428,7 +2611,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -2533,7 +2716,10 @@
         <f>MINUTE(H4)*60+SECOND(H4)</f>
         <v>285</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f>IF(I4&lt;VLOOKUP(B4,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
@@ -2561,11 +2747,14 @@
         <f t="shared" ref="H5:H10" si="2">C5-G5</f>
         <v>1.3888888888886767E-4</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <f t="shared" ref="I5:I10" si="3">MINUTE(H5)*60+SECOND(H5)</f>
         <v>12</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="34" t="str">
+        <f>IF(I5&lt;VLOOKUP(B5,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -2594,7 +2783,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="23">
         <f>VLOOKUP(B7,Время!A$4:D$9,4,FALSE)</f>
@@ -2622,11 +2811,14 @@
         <f t="shared" si="3"/>
         <v>291</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f>IF(I7&lt;VLOOKUP(B7,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="23">
         <f>VLOOKUP(B8,Время!A$4:D$9,4,FALSE)</f>
@@ -2654,7 +2846,10 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f>IF(I8&lt;VLOOKUP(B8,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -2686,7 +2881,10 @@
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>IF(I9&lt;VLOOKUP(B9,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -2718,7 +2916,10 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>IF(I10&lt;VLOOKUP(B10,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -2744,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
@@ -2845,7 +3046,10 @@
         <f>MINUTE(H18)*60+SECOND(H18)</f>
         <v>137</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>IF(I18&lt;VLOOKUP(B18,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
@@ -2873,15 +3077,18 @@
         <f t="shared" ref="H19:H23" si="6">C19-G19</f>
         <v>1.0416666666664522E-4</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <f t="shared" ref="I19:I23" si="7">MINUTE(H19)*60+SECOND(H19)</f>
         <v>9</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="34" t="str">
+        <f>IF(I19&lt;VLOOKUP(B19,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="23">
         <f>VLOOKUP(B20,Время!A$4:D$9,4,FALSE)</f>
@@ -2909,11 +3116,14 @@
         <f t="shared" si="7"/>
         <v>321</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>IF(I20&lt;VLOOKUP(B20,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="23">
         <f>VLOOKUP(B21,Время!A$4:D$9,4,FALSE)</f>
@@ -2941,7 +3151,10 @@
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>IF(I21&lt;VLOOKUP(B21,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
@@ -2973,7 +3186,10 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f>IF(I22&lt;VLOOKUP(B22,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
@@ -3005,7 +3221,10 @@
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f>IF(I23&lt;VLOOKUP(B23,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -3031,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
@@ -3107,11 +3326,14 @@
         <f>MINUTE(H30)*60+SECOND(H30)</f>
         <v>116</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>IF(I30&lt;VLOOKUP(B30,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23">
@@ -3134,7 +3356,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="23">
         <f>VLOOKUP(B32,Время!A$4:D$9,4,FALSE)</f>
@@ -3162,11 +3384,14 @@
         <f t="shared" ref="I32:I35" si="11">MINUTE(H32)*60+SECOND(H32)</f>
         <v>396</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="str">
+        <f>IF(I32&lt;VLOOKUP(B32,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="23">
         <f>VLOOKUP(B33,Время!A$4:D$9,4,FALSE)</f>
@@ -3194,7 +3419,10 @@
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="str">
+        <f>IF(I33&lt;VLOOKUP(B33,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
@@ -3226,7 +3454,10 @@
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="str">
+        <f>IF(I34&lt;VLOOKUP(B34,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
@@ -3258,14 +3489,17 @@
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="str">
+        <f>IF(I35&lt;VLOOKUP(B35,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -3288,7 +3522,7 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="33"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
@@ -3300,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -3376,7 +3610,10 @@
         <f>MINUTE(H43)*60+SECOND(H43)</f>
         <v>74</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="str">
+        <f>IF(I43&lt;VLOOKUP(B43,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -3404,15 +3641,18 @@
         <f>-(C44-G44)</f>
         <v>2.1990740740742906E-4</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="31">
         <f>-(MINUTE(H44)*60+SECOND(H44))</f>
         <v>-19</v>
       </c>
-      <c r="J44" s="1"/>
+      <c r="J44" s="34" t="str">
+        <f>IF(I44&lt;VLOOKUP(B44,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="23">
         <f>VLOOKUP(B45,Время!A$4:D$9,4,FALSE)</f>
@@ -3440,11 +3680,14 @@
         <f t="shared" ref="I45:I48" si="15">MINUTE(H45)*60+SECOND(H45)</f>
         <v>318</v>
       </c>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="str">
+        <f>IF(I45&lt;VLOOKUP(B45,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="23">
         <f>VLOOKUP(B46,Время!A$4:D$9,4,FALSE)</f>
@@ -3472,7 +3715,10 @@
         <f t="shared" si="15"/>
         <v>62</v>
       </c>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="str">
+        <f>IF(I46&lt;VLOOKUP(B46,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
@@ -3504,7 +3750,10 @@
         <f t="shared" si="15"/>
         <v>183</v>
       </c>
-      <c r="J47" s="1"/>
+      <c r="J47" s="1" t="str">
+        <f>IF(I47&lt;VLOOKUP(B47,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
@@ -3532,11 +3781,14 @@
         <f t="shared" si="14"/>
         <v>8.68055555555379E-5</v>
       </c>
-      <c r="I48" s="32">
+      <c r="I48" s="31">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="J48" s="1"/>
+      <c r="J48" s="34" t="str">
+        <f>IF(I48&lt;VLOOKUP(B48,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
@@ -3562,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
@@ -3610,7 +3862,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="23">
@@ -3663,7 +3915,10 @@
         <f>MINUTE(H56)*60+SECOND(H56)</f>
         <v>111</v>
       </c>
-      <c r="J56" s="1"/>
+      <c r="J56" s="1" t="str">
+        <f>IF(I56&lt;VLOOKUP(B56,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
@@ -3691,15 +3946,18 @@
         <f t="shared" ref="H57:H61" si="18">C57-G57</f>
         <v>3.2407407407405303E-4</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="31">
         <f t="shared" ref="I57:I61" si="19">MINUTE(H57)*60+SECOND(H57)</f>
         <v>28</v>
       </c>
-      <c r="J57" s="1"/>
+      <c r="J57" s="34" t="str">
+        <f>IF(I57&lt;VLOOKUP(B57,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="23">
         <f>VLOOKUP(B58,Время!A$4:D$9,4,FALSE)</f>
@@ -3727,11 +3985,14 @@
         <f t="shared" si="19"/>
         <v>241</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="1" t="str">
+        <f>IF(I58&lt;VLOOKUP(B58,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="23">
         <f>VLOOKUP(B59,Время!A$4:D$9,4,FALSE)</f>
@@ -3759,7 +4020,10 @@
         <f t="shared" si="19"/>
         <v>64</v>
       </c>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="str">
+        <f>IF(I59&lt;VLOOKUP(B59,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
@@ -3791,7 +4055,10 @@
         <f t="shared" si="19"/>
         <v>117</v>
       </c>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="str">
+        <f>IF(I60&lt;VLOOKUP(B60,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
@@ -3823,7 +4090,10 @@
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="str">
+        <f>IF(I61&lt;VLOOKUP(B61,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
@@ -3849,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
@@ -3925,7 +4195,10 @@
         <f t="shared" ref="I68:I72" si="23">MINUTE(H68)*60+SECOND(H68)</f>
         <v>189</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1" t="str">
+        <f>IF(I68&lt;VLOOKUP(B68,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
@@ -3957,11 +4230,14 @@
         <f t="shared" si="23"/>
         <v>172</v>
       </c>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="str">
+        <f>IF(I69&lt;VLOOKUP(B69,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="23">
         <f>VLOOKUP(B70,Время!A$4:D$9,4,FALSE)</f>
@@ -3989,7 +4265,10 @@
         <f t="shared" si="23"/>
         <v>295</v>
       </c>
-      <c r="J70" s="5"/>
+      <c r="J70" s="1" t="str">
+        <f>IF(I70&lt;VLOOKUP(B70,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
@@ -4021,11 +4300,14 @@
         <f t="shared" si="23"/>
         <v>263</v>
       </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1" t="str">
+        <f>IF(I71&lt;VLOOKUP(B71,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" s="23">
         <f>VLOOKUP(B72,Время!A$4:D$9,4,FALSE)</f>
@@ -4053,14 +4335,17 @@
         <f t="shared" si="23"/>
         <v>52</v>
       </c>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="str">
+        <f>IF(I72&lt;VLOOKUP(B72,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>6</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -4092,10 +4377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,12 +4808,12 @@
         <v>204</v>
       </c>
       <c r="K18" s="29">
+        <f>'2019_05_14'!I6</f>
+        <v>392</v>
+      </c>
+      <c r="L18" s="29">
         <f>'2019_05_14'!I7</f>
         <v>71</v>
-      </c>
-      <c r="L18" s="29">
-        <f>'2019_05_14'!I6</f>
-        <v>392</v>
       </c>
       <c r="M18" s="29">
         <f>'2019_05_14'!I9</f>
@@ -4562,12 +4847,12 @@
         <v>161</v>
       </c>
       <c r="K19" s="29">
+        <f>'2019_05_14'!I19</f>
+        <v>236</v>
+      </c>
+      <c r="L19" s="29">
         <f>'2019_05_14'!I18</f>
         <v>55</v>
-      </c>
-      <c r="L19" s="29">
-        <f>'2019_05_14'!I19</f>
-        <v>236</v>
       </c>
       <c r="M19" s="29">
         <f>'2019_05_14'!I21</f>
@@ -4601,12 +4886,12 @@
         <v>116</v>
       </c>
       <c r="K20" s="29">
+        <f>'2019_05_14'!I30</f>
+        <v>396</v>
+      </c>
+      <c r="L20" s="29">
         <f>'2019_05_14'!I31</f>
         <v>80</v>
-      </c>
-      <c r="L20" s="29">
-        <f>'2019_05_14'!I30</f>
-        <v>396</v>
       </c>
       <c r="M20" s="29">
         <f>'2019_05_14'!I32</f>
@@ -4639,12 +4924,12 @@
         <f>'2019_05_14'!I40</f>
         <v>271</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="35">
         <f>'2019_05_14'!I44</f>
         <v>78</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>51</v>
       </c>
       <c r="M21" s="29">
         <f>'2019_05_14'!I45</f>
@@ -4671,7 +4956,7 @@
       <c r="H22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="36">
         <f>'2019_05_14'!I55</f>
         <v>19</v>
       </c>
@@ -4680,12 +4965,12 @@
         <v>219</v>
       </c>
       <c r="K22" s="29">
+        <f>'2019_05_14'!I57</f>
+        <v>220</v>
+      </c>
+      <c r="L22" s="29">
         <f>'2019_05_14'!I56</f>
         <v>85</v>
-      </c>
-      <c r="L22" s="29">
-        <f>'2019_05_14'!I57</f>
-        <v>220</v>
       </c>
       <c r="M22" s="29">
         <f>'2019_05_14'!I59</f>
@@ -4719,12 +5004,12 @@
         <v>82</v>
       </c>
       <c r="K23" s="29">
+        <f>'2019_05_14'!I70</f>
+        <v>202</v>
+      </c>
+      <c r="L23" s="29">
         <f>'2019_05_14'!I69</f>
         <v>67</v>
-      </c>
-      <c r="L23" s="29">
-        <f>'2019_05_14'!I70</f>
-        <v>202</v>
       </c>
       <c r="M23" s="29">
         <f>'2019_05_14'!I71</f>
@@ -4751,13 +5036,33 @@
       <c r="H24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="I24" s="36">
+        <f>'2019_05_21'!I5</f>
+        <v>12</v>
+      </c>
+      <c r="J24" s="29">
+        <f>'2019_05_21'!I4</f>
+        <v>285</v>
+      </c>
+      <c r="K24" s="29">
+        <f>'2019_05_21'!I7</f>
+        <v>291</v>
+      </c>
+      <c r="L24" s="29">
+        <f>'2019_05_21'!I8</f>
+        <v>71</v>
+      </c>
+      <c r="M24" s="29">
+        <f>'2019_05_21'!I10</f>
+        <v>26</v>
+      </c>
+      <c r="N24" s="29">
+        <f>'2019_05_21'!I9</f>
+        <v>203</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -4772,13 +5077,33 @@
       <c r="H25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="I25" s="36">
+        <f>'2019_05_21'!I19</f>
+        <v>9</v>
+      </c>
+      <c r="J25" s="29">
+        <f>'2019_05_21'!I18</f>
+        <v>137</v>
+      </c>
+      <c r="K25" s="29">
+        <f>'2019_05_21'!I20</f>
+        <v>321</v>
+      </c>
+      <c r="L25" s="29">
+        <f>'2019_05_21'!I21</f>
+        <v>66</v>
+      </c>
+      <c r="M25" s="29">
+        <f>'2019_05_21'!I22</f>
+        <v>36</v>
+      </c>
+      <c r="N25" s="29">
+        <f>'2019_05_21'!I23</f>
+        <v>39</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -4793,12 +5118,29 @@
       <c r="H26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="I26" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="29">
+        <f>'2019_05_21'!I30</f>
+        <v>116</v>
+      </c>
+      <c r="K26" s="29">
+        <f>'2019_05_21'!I32</f>
+        <v>396</v>
+      </c>
+      <c r="L26" s="29">
+        <f>'2019_05_21'!I33</f>
+        <v>80</v>
+      </c>
+      <c r="M26" s="29">
+        <f>'2019_05_21'!I35</f>
+        <v>30</v>
+      </c>
+      <c r="N26" s="29">
+        <f>'2019_05_21'!I34</f>
+        <v>73</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
@@ -4814,12 +5156,30 @@
       <c r="H27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="I27" s="36">
+        <f>'2019_05_21'!I44</f>
+        <v>-19</v>
+      </c>
+      <c r="J27" s="29">
+        <f>'2019_05_21'!I43</f>
+        <v>74</v>
+      </c>
+      <c r="K27" s="29">
+        <f>'2019_05_21'!I45</f>
+        <v>318</v>
+      </c>
+      <c r="L27" s="29">
+        <f>'2019_05_21'!I46</f>
+        <v>62</v>
+      </c>
+      <c r="M27" s="36">
+        <f>'2019_05_21'!I48</f>
+        <v>7</v>
+      </c>
+      <c r="N27" s="29">
+        <f>'2019_05_21'!I47</f>
+        <v>183</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
@@ -4835,13 +5195,33 @@
       <c r="H28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="I28" s="36">
+        <f>'2019_05_21'!I57</f>
+        <v>28</v>
+      </c>
+      <c r="J28" s="29">
+        <f>'2019_05_21'!I56</f>
+        <v>111</v>
+      </c>
+      <c r="K28" s="29">
+        <f>'2019_05_21'!I58</f>
+        <v>241</v>
+      </c>
+      <c r="L28" s="29">
+        <f>'2019_05_21'!I59</f>
+        <v>64</v>
+      </c>
+      <c r="M28" s="29">
+        <f>'2019_05_21'!I61</f>
+        <v>17</v>
+      </c>
+      <c r="N28" s="29">
+        <f>'2019_05_21'!I60</f>
+        <v>117</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -4856,12 +5236,29 @@
       <c r="H29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="I29" s="29">
+        <f>'2019_05_21'!I68</f>
+        <v>189</v>
+      </c>
+      <c r="J29" s="29">
+        <f>'2019_05_21'!I69</f>
+        <v>172</v>
+      </c>
+      <c r="K29" s="29">
+        <f>'2019_05_21'!I70</f>
+        <v>295</v>
+      </c>
+      <c r="L29" s="29">
+        <f>'2019_05_21'!I72</f>
+        <v>52</v>
+      </c>
+      <c r="M29" s="29">
+        <f>'2019_05_21'!I71</f>
+        <v>263</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>50</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
@@ -4895,9 +5292,31 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="36">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,10 +5325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4918,31 +5337,61 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="27">
         <v>0.41736111111111113</v>
       </c>
       <c r="D3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="27">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4957,8 +5406,29 @@
         <f>C4*D$3</f>
         <v>3.3564814814814603E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="27">
+        <v>0.42332175925925924</v>
+      </c>
+      <c r="F4" s="27">
+        <f>E4-F$3</f>
+        <v>5.9606481481481177E-3</v>
+      </c>
+      <c r="G4" s="27">
+        <f>F4*G$3</f>
+        <v>2.9803240740740589E-3</v>
+      </c>
+      <c r="H4">
+        <f>MINUTE(D4-G4)*60+SECOND(D4-G4)</f>
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4973,40 +5443,103 @@
         <f t="shared" ref="D5:D9" si="1">C5*D$3</f>
         <v>3.90625E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="27">
+        <v>0.42471064814814818</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" ref="F5:F9" si="2">E5-F$3</f>
+        <v>7.3495370370370572E-3</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" ref="G5:G9" si="3">F5*G$3</f>
+        <v>3.6747685185185286E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H9" si="4">MINUTE(D5-G5)*60+SECOND(D5-G5)</f>
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="27">
-        <v>0.43096064814814811</v>
+        <v>0.43478009259259259</v>
       </c>
       <c r="C6" s="27">
         <f t="shared" si="0"/>
-        <v>1.3599537037036979E-2</v>
+        <v>1.7418981481481466E-2</v>
       </c>
       <c r="D6" s="27">
         <f t="shared" si="1"/>
-        <v>6.7997685185184897E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.7094907407407329E-3</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.43240740740740741</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="2"/>
+        <v>1.504629629629628E-2</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="3"/>
+        <v>7.5231481481481399E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="27">
-        <v>0.43478009259259259</v>
+        <v>0.43096064814814811</v>
       </c>
       <c r="C7" s="27">
-        <f t="shared" si="0"/>
-        <v>1.7418981481481466E-2</v>
+        <f t="shared" ref="C7" si="5">B7-C$3</f>
+        <v>1.3599537037036979E-2</v>
       </c>
       <c r="D7" s="27">
-        <f t="shared" si="1"/>
-        <v>8.7094907407407329E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D7" si="6">C7*D$3</f>
+        <v>6.7997685185184897E-3</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.4303819444444445</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" ref="F7" si="7">E7-F$3</f>
+        <v>1.302083333333337E-2</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" ref="G7" si="8">F7*G$3</f>
+        <v>6.5104166666666852E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5021,8 +5554,29 @@
         <f t="shared" si="1"/>
         <v>8.9409722222222043E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="27">
+        <v>0.43489583333333331</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="2"/>
+        <v>1.7534722222222188E-2</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="3"/>
+        <v>8.7673611111110938E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5036,6 +5590,32 @@
       <c r="D9" s="27">
         <f t="shared" si="1"/>
         <v>9.4907407407407163E-3</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.43599537037037034</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="2"/>
+        <v>1.8634259259259212E-2</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="3"/>
+        <v>9.3171296296296058E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
